--- a/ValueSet-pco-domain-category-valueset.xlsx
+++ b/ValueSet-pco-domain-category-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -180,7 +180,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/CodeSystem/ncqa-goal-domains</t>
+    <t>http://hl7.org/fhir/us/pco/CodeSystem/pco-goal-domains</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-pco-domain-category-valueset.xlsx
+++ b/ValueSet-pco-domain-category-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-domain-category-valueset.xlsx
+++ b/ValueSet-pco-domain-category-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-domain-category-valueset.xlsx
+++ b/ValueSet-pco-domain-category-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-domain-category-valueset.xlsx
+++ b/ValueSet-pco-domain-category-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-domain-category-valueset.xlsx
+++ b/ValueSet-pco-domain-category-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-domain-category-valueset.xlsx
+++ b/ValueSet-pco-domain-category-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
